--- a/Flight_Price_Validation_Positive and Neg/Default.xlsx
+++ b/Flight_Price_Validation_Positive and Neg/Default.xlsx
@@ -27,7 +27,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -198,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -500,7 +502,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -509,19 +511,19 @@
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1">
-      <c t="s">
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row>
-      <c s="3">
-        <v>200</v>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>167.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +544,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
